--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -59,7 +59,7 @@
     <t>50.5000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:16 AM</t>
+    <t>Sunday, 28 September, 2025 9:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -59,7 +59,22 @@
     <t>50.5000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:34 AM</t>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Sunday, 28 September, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -721,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>50.5</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>18</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>137.5</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -766,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -74,7 +74,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:39 AM</t>
+    <t>Sunday, 28 September, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -74,7 +74,22 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:42 AM</t>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>Sunday, 28 September, 2025 9:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,38 +784,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>137.5</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>155.5</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +867,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>0:3</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:46 AM</t>
+    <t>Sunday, 28 September, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>0:3</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>Sunday, 28 September, 2025 10:28 AM</t>
@@ -817,38 +829,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>155.5</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>179.5</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +917,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 10:28 AM</t>
+    <t>Sunday, 28 September, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 10:45 AM</t>
+    <t>Sunday, 28 September, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -101,7 +113,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 10:48 AM</t>
+    <t>Sunday, 28 September, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -858,42 +870,75 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>179.5</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>31</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
-        <v>32</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>203.25999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +967,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -113,7 +113,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 10:49 AM</t>
+    <t>Sunday, 28 September, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>101.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -92,9 +101,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -113,7 +119,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:16 AM</t>
+    <t>Sunday, 28 September, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -771,7 +777,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -780,14 +786,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -804,7 +810,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -813,14 +819,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -830,14 +836,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -846,14 +852,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -863,14 +869,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,14 +885,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -896,49 +902,82 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>203.25999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>231.97</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1011,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>324.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -80,9 +107,6 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -119,7 +143,19 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:35 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 28 September, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,7 +829,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -803,14 +839,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -819,14 +855,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -836,14 +872,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -852,14 +888,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,14 +905,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -892,7 +928,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -902,14 +938,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -942,42 +978,141 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>231.97</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>45</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>570.45000000000005</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1151,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:36 AM</t>
+    <t>Sunday, 28 September, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -155,7 +167,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:45 AM</t>
+    <t>Sunday, 28 September, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,13 +1072,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1081,38 +1093,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>570.45000000000005</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>48</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
         <v>49</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>50</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>591.45000000000005</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1166,10 +1211,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -89,6 +101,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -101,12 +122,24 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -143,6 +176,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -158,16 +200,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:46 AM</t>
+    <t>Sunday, 28 September, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -874,7 +913,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -884,14 +923,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -907,7 +946,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,14 +956,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -933,14 +972,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,14 +989,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,14 +1005,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -990,7 +1029,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -999,7 +1038,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1016,11 +1055,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1032,31 +1071,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1065,14 +1104,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1082,14 +1121,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1105,59 +1144,191 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c t="s" r="Q16" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>591.45000000000005</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>1173.8499999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>66</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>67</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1387,30 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -125,12 +125,21 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">RELANTA  20TAB</t>
+  </si>
+  <si>
+    <t>86.75</t>
+  </si>
+  <si>
+    <t>86.7500</t>
+  </si>
+  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -206,7 +224,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:03 PM</t>
+    <t>Sunday, 28 September, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,18 +1102,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1104,31 +1122,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1154,14 +1172,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1177,7 +1195,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1187,14 +1205,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,14 +1221,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1243,21 +1261,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1269,7 +1287,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1282,53 +1300,119 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>1173.8499999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>65</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>66</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>43</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>69</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1395.5999999999999</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1407,10 +1491,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:08 PM</t>
+    <t>Sunday, 28 September, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MELATEX LIGHTENING CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>243.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -224,7 +233,19 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:12 PM</t>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 28 September, 2025 1:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1228,7 +1249,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,11 +1259,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1254,20 +1275,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1300,7 +1321,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1327,7 +1348,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1337,11 +1358,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1353,20 +1374,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1381,38 +1402,104 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1395.5999999999999</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>71</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>43</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>72</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>75</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>43</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1658.5999999999999</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>78</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>80</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1588,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
     <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
   </si>
   <si>
@@ -128,9 +143,6 @@
     <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -149,15 +161,18 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
     <t>1:9</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -230,7 +245,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -245,7 +263,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:13 PM</t>
+    <t>Sunday, 28 September, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1018,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1028,14 +1046,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1044,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1061,14 +1079,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1077,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1094,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1110,14 +1128,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1127,11 +1145,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1143,20 +1161,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1167,7 +1185,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1183,13 +1201,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1200,7 +1218,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1226,11 +1244,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1308,7 +1326,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1321,15 +1339,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1358,11 +1376,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1374,28 +1392,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1407,7 +1425,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1420,15 +1438,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1440,66 +1458,132 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1658.5999999999999</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>47</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
         <v>79</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>80</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>47</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1784.5999999999999</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1598,10 +1682,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -104,43 +104,43 @@
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>0:2</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
   </si>
   <si>
     <t>135.00</t>
@@ -1053,7 +1053,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1079,11 +1079,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1161,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1201,7 +1201,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="P27" s="13">
-        <v>1784.5999999999999</v>
+        <v>1734.2000000000001</v>
       </c>
       <c r="Q27" s="13"/>
     </row>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -104,15 +104,15 @@
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>69.6000</t>
+  </si>
+  <si>
     <t>0:7</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
     <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
   </si>
   <si>
@@ -263,7 +263,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:22 PM</t>
+    <t>Sunday, 28 September, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1036,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1046,14 +1046,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="P27" s="13">
-        <v>1734.2000000000001</v>
+        <v>1794.2000000000001</v>
       </c>
       <c r="Q27" s="13"/>
     </row>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADAPALENE 0.1% GEL 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>229.00</t>
   </si>
   <si>
     <t>229.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -137,6 +146,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -161,6 +182,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>123.7500</t>
+  </si>
+  <si>
     <t>LORNOXICAM 8MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -188,6 +218,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MELATEX LIGHTENING CLEANSER 200 ML</t>
   </si>
   <si>
@@ -239,6 +278,9 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -263,7 +305,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:24 PM</t>
+    <t>Sunday, 28 September, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -921,7 +963,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -930,14 +972,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -947,14 +989,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -963,14 +1005,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -980,14 +1022,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -996,14 +1038,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1013,14 +1055,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1029,14 +1071,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1053,7 +1095,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,14 +1104,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1079,14 +1121,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1102,7 +1144,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1119,7 +1161,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1135,7 +1177,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1187,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1178,14 +1220,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,31 +1236,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,14 +1286,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,31 +1302,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1352,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,7 +1368,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1343,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1376,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,13 +1441,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1416,7 +1458,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1432,7 +1474,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1449,7 +1491,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1465,7 +1507,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1475,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,20 +1533,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1515,7 +1557,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,66 +1566,231 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>83</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1794.2000000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>38</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>54</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>91</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>95</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>54</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>2174.9499999999998</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1899,35 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -305,7 +311,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:27 PM</t>
+    <t>Sunday, 28 September, 2025 1:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,13 +1711,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1719,10 +1725,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1731,14 +1737,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1748,49 +1754,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>97</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>54</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>98</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>2174.9499999999998</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>98</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>99</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>2192.9499999999998</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>100</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1924,10 +1963,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:28 PM</t>
+    <t>Sunday, 28 September, 2025 1:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -311,7 +311,16 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:29 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 28 September, 2025 1:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,38 +1807,71 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>2192.9499999999998</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>100</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>86</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>54</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>2217.9499999999998</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>103</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>104</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>105</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2010,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:40 PM</t>
+    <t>Sunday, 28 September, 2025 1:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,24 +1333,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1350,20 +1359,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1390,7 +1399,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,11 +1409,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1416,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1433,14 +1442,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,14 +1475,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1489,7 +1498,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1506,7 +1515,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1555,7 +1564,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,11 +1574,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1581,20 +1590,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1627,7 +1636,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1654,7 +1663,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1664,11 +1673,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1680,14 +1689,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1697,11 +1706,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,31 +1755,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1779,31 +1788,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1812,20 +1821,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1840,38 +1849,71 @@
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>2217.9499999999998</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>103</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>89</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>57</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>104</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>2341.9499999999998</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>107</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>108</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2015,10 +2057,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:41 PM</t>
+    <t>Sunday, 28 September, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:42 PM</t>
+    <t>Sunday, 28 September, 2025 1:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -296,16 +296,28 @@
     <t>36.00</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -329,7 +341,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 1:52 PM</t>
+    <t>Sunday, 28 September, 2025 3:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,24 +1807,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1828,7 +1840,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1861,7 +1873,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1871,49 +1883,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>2341.9499999999998</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>106</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>107</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>89</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>57</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>2360.7800000000002</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>110</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>111</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>112</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2062,10 +2107,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 3:29 PM</t>
+    <t>Sunday, 28 September, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -113,6 +113,9 @@
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -206,6 +209,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
@@ -302,9 +314,6 @@
     <t>3:3</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -341,7 +350,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 3:30 PM</t>
+    <t>Sunday, 28 September, 2025 3:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,7 +1156,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1157,14 +1166,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1173,7 +1182,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1190,11 +1199,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1206,7 +1215,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1223,11 +1232,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>24</v>
@@ -1239,7 +1248,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1260,7 +1269,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1272,14 +1281,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1289,11 +1298,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1305,14 +1314,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,11 +1331,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1338,7 +1347,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1355,11 +1364,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1371,28 +1380,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1404,7 +1413,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1421,11 +1430,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1437,7 +1446,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1458,7 +1467,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>24</v>
@@ -1470,31 +1479,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1510,7 +1519,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1529,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1569,7 +1578,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1586,11 +1595,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1602,14 +1611,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1642,21 +1651,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1668,7 +1677,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1681,15 +1690,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1701,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1741,7 +1750,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,11 +1826,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1840,24 +1849,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,31 +1875,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,20 +1908,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1927,38 +1936,71 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>2360.7800000000002</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>110</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>93</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>58</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>111</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>2411.7800000000002</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>113</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>114</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>115</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2112,10 +2154,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 3:55 PM</t>
+    <t>Sunday, 28 September, 2025 4:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -194,6 +206,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
     <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -350,7 +371,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 4:01 PM</t>
+    <t>Sunday, 28 September, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1243,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1232,14 +1253,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1248,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1265,14 +1286,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1281,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1298,7 +1319,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1354,7 +1375,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1364,11 +1385,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1380,20 +1401,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1404,7 +1425,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1420,21 +1441,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1463,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1479,7 +1500,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1492,18 +1513,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1529,14 +1550,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1552,13 +1573,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1569,7 +1590,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1585,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1611,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1690,7 +1711,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1717,7 +1738,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1727,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1743,20 +1764,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1783,7 +1804,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1793,11 +1814,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1809,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1826,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1842,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1859,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1875,31 +1896,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1921,18 +1942,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1941,66 +1962,132 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>112</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>2411.7800000000002</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>113</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>114</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>62</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>115</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>100</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>62</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>2693.7800000000002</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>120</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>121</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>122</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2159,10 +2246,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -338,6 +347,30 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -350,16 +383,28 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>25:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>35:0</t>
   </si>
   <si>
     <t>مناديل سولو سحب صغيره</t>
@@ -371,7 +416,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 4:02 PM</t>
+    <t>Sunday, 28 September, 2025 4:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1194,7 +1239,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1203,14 +1248,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1227,7 +1272,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1236,14 +1281,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1276,7 +1321,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,14 +1331,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1302,14 +1347,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1319,14 +1364,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1335,14 +1380,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,7 +1397,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1408,7 +1453,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,11 +1463,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1434,20 +1479,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1458,7 +1503,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1474,24 +1519,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1562,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,14 +1578,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,11 +1595,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>24</v>
@@ -1566,31 +1611,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,31 +1644,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1639,7 +1684,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,14 +1694,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1672,7 +1717,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1689,7 +1734,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1738,7 +1783,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,11 +1793,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1764,20 +1809,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1810,7 +1855,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1837,7 +1882,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,11 +1892,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1863,14 +1908,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,11 +1925,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1896,14 +1941,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1958,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,11 +1991,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -1969,24 +2014,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,28 +2040,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2028,20 +2073,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2056,38 +2101,236 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>2693.7800000000002</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>120</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>66</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>121</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>66</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>125</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>128</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>66</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>118</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>66</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>114</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>130</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>131</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>66</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>94</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>103</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>66</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>133</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2825.7800000000002</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>135</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>136</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>137</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2256,10 +2499,40 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>243.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -416,7 +425,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 4:15 PM</t>
+    <t>Sunday, 28 September, 2025 4:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1825,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,20 +1851,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1888,7 +1897,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1915,7 +1924,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,11 +1934,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,11 +1967,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,11 +2033,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2053,18 +2062,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2130,7 +2139,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,7 +2148,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2179,7 +2188,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2222,11 +2231,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2255,11 +2264,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2288,49 +2297,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2825.7800000000002</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>135</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>106</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>66</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>136</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2889.6350000000002</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>138</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>139</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>140</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2529,10 +2571,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 4:43 PM</t>
+    <t>Sunday, 28 September, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -167,6 +179,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -236,6 +257,15 @@
     <t>123.7500</t>
   </si>
   <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>LORNOXICAM 8MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -341,6 +371,15 @@
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -425,7 +464,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 4:56 PM</t>
+    <t>Sunday, 28 September, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1281,7 +1320,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1290,14 +1329,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1314,7 +1353,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1323,14 +1362,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1363,7 +1402,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1373,14 +1412,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1389,14 +1428,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1406,14 +1445,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1439,14 +1478,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1455,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,11 +1511,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1488,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1528,13 +1567,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1545,7 +1584,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1561,7 +1600,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1594,21 +1633,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>24</v>
@@ -1620,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,7 +1692,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1666,18 +1705,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,14 +1758,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,11 +1775,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1752,7 +1791,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1765,15 +1804,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1785,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,14 +1841,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,11 +1874,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1851,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1897,7 +1936,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1924,7 +1963,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1941,7 +1980,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1990,21 +2029,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2016,14 +2055,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2033,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2049,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2066,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,28 +2121,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2115,20 +2154,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2139,7 +2178,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2155,13 +2194,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2169,10 +2208,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,31 +2220,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,28 +2253,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2254,21 +2293,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2280,31 +2319,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2313,66 +2352,198 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2889.6350000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>138</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>139</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>140</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>143</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>144</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>73</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>134</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>73</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>130</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>146</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>147</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>73</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>107</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>148</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>116</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>73</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>149</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2997.2950000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2576,10 +2747,30 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -464,7 +476,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 4:57 PM</t>
+    <t>Sunday, 28 September, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1447,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,11 +1457,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>24</v>
@@ -1461,14 +1473,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,11 +1490,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1494,14 +1506,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1523,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,14 +1539,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1600,7 +1612,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1610,11 +1622,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1626,20 +1638,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1650,7 +1662,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1666,24 +1678,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,14 +1721,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,11 +1754,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1758,7 +1770,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1775,11 +1787,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1791,31 +1803,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,31 +1836,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1886,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,7 +1935,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1940,11 +1952,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2013,7 +2025,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,21 +2041,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2055,7 +2067,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2068,15 +2080,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2128,7 +2140,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,11 +2150,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2183,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,11 +2249,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2253,31 +2265,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2299,7 +2311,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2326,24 +2338,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2365,7 +2377,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2376,7 +2388,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,28 +2397,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2418,28 +2430,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2451,28 +2463,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2484,66 +2496,99 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2997.2950000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>151</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>152</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>120</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>77</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>153</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>3013.1350000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>155</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>156</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>157</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2812,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -101,207 +101,213 @@
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>69.6000</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>BRAYTOPED SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
+    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>123.7500</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>69.6000</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>259.00</t>
-  </si>
-  <si>
-    <t>259.0000</t>
-  </si>
-  <si>
-    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>375.00</t>
-  </si>
-  <si>
-    <t>123.7500</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>LOTERANOL 0.5% EYE DROPS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -392,6 +398,15 @@
     <t>24.5000</t>
   </si>
   <si>
+    <t>TRISTARSHOW SYRUP</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -476,7 +491,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 5:15 PM</t>
+    <t>Sunday, 28 September, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,21 +1429,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1457,14 +1472,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1473,14 +1488,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1490,11 +1505,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1523,11 +1538,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1579,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1589,11 +1604,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1622,11 +1637,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1655,11 +1670,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1671,31 +1686,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1704,31 +1719,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,11 +1802,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1803,7 +1818,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1820,11 +1835,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1836,31 +1851,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1869,31 +1884,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1968,7 +1983,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1985,11 +2000,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,28 +2082,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2100,7 +2115,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2113,15 +2128,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2183,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2272,24 +2287,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2305,24 +2320,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2331,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2364,31 +2379,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2397,28 +2412,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2430,31 +2445,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,15 +2491,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2496,28 +2511,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2529,66 +2544,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>3013.1350000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>155</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>156</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>50</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>113</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>157</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>122</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>50</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>158</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3418.1350000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>160</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>161</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>162</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2817,10 +2898,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>229.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>30.6900</t>
   </si>
   <si>
@@ -254,6 +260,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>HERO BABY 1 MILK 400 GM</t>
   </si>
   <si>
@@ -263,6 +278,15 @@
     <t>259.0000</t>
   </si>
   <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -317,6 +341,12 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>MELANTHENOL GEL 40 GM</t>
   </si>
   <si>
@@ -470,7 +500,10 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -491,7 +524,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 5:47 PM</t>
+    <t>Sunday, 28 September, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,7 +1231,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1208,14 +1241,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1224,14 +1257,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1241,14 +1274,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1257,14 +1290,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1274,14 +1307,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1290,14 +1323,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1307,14 +1340,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1323,14 +1356,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1340,14 +1373,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1356,14 +1389,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1373,14 +1406,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1389,14 +1422,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1406,14 +1439,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1422,7 +1455,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1435,15 +1468,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1462,21 +1495,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1488,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1505,14 +1538,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1538,14 +1571,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1554,14 +1587,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1571,14 +1604,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1587,14 +1620,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1604,14 +1637,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1627,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1637,11 +1670,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1653,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,11 +1703,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1686,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1703,11 +1736,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1719,31 +1752,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,31 +1785,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1785,14 +1818,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1802,14 +1835,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1818,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1835,14 +1868,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1897,7 +1930,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1908,7 +1941,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1924,7 +1957,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,14 +1983,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1967,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1983,7 +2016,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1996,15 +2029,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,11 +2132,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2115,7 +2148,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2128,15 +2161,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2148,7 +2181,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2165,11 +2198,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2181,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,11 +2264,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2247,31 +2280,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,7 +2313,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2293,15 +2326,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2313,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2334,10 +2367,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,14 +2396,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,31 +2412,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,28 +2445,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2445,31 +2478,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,31 +2511,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,28 +2544,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2544,28 +2577,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2584,24 +2617,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,66 +2643,198 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3418.1350000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>160</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>161</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>162</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>163</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>52</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>153</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>17</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>52</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>149</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>166</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>167</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>52</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>123</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>132</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>52</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>169</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>3707.4450000000002</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>171</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>172</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>173</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2908,10 +3073,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>229.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>28.7100</t>
   </si>
   <si>
@@ -140,6 +152,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>231.0000</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -170,6 +191,33 @@
     <t>0</t>
   </si>
   <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>584.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -221,9 +269,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -233,9 +278,6 @@
     <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -287,6 +329,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
     <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -305,6 +356,21 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>LORNOXICAM 8MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -329,9 +395,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -350,9 +413,6 @@
     <t>MELANTHENOL GEL 40 GM</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -452,6 +512,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -467,13 +533,22 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>32:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -482,10 +557,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -494,16 +566,13 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>24:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1231,7 +1300,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1241,14 +1310,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,14 +1326,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1274,14 +1343,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1297,7 +1366,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1307,7 +1376,7 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
@@ -1330,7 +1399,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1340,14 +1409,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1380,7 +1449,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1406,14 +1475,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1491,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1508,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,7 +1524,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1472,11 +1541,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1488,31 +1557,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,11 +1607,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1554,31 +1623,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1656,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1611,7 +1680,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,14 +1706,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1653,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1670,11 +1739,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1686,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1772,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1719,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,31 +1854,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1904,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,11 +1937,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1884,14 +1953,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,14 +1970,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1917,31 +1986,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,14 +2019,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +2036,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2069,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,31 +2085,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2118,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2135,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2151,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2168,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2115,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2217,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2234,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2250,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2267,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,31 +2283,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2333,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,31 +2349,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,7 +2382,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2330,11 +2399,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2346,14 +2415,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,7 +2432,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2386,7 +2455,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,11 +2465,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2412,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2498,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,28 +2514,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2478,31 +2547,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2528,14 +2597,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,28 +2613,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2577,28 +2646,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2610,31 +2679,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2656,7 +2725,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2683,24 +2752,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,31 +2778,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,28 +2811,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2775,66 +2844,330 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>3707.4450000000002</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>174</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>59</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>175</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>177</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>59</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>178</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>180</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>17</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>59</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>181</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>17</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>59</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>186</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>187</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>59</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>175</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>17</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>59</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>171</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>172</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>173</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>189</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>190</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>59</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>143</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>152</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>59</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>192</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>5123.8649999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>194</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>195</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>196</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3093,10 +3426,50 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -593,7 +593,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 7:23 PM</t>
+    <t>Sunday, 28 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>0</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
   </si>
   <si>
@@ -206,6 +215,18 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
@@ -230,6 +251,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -446,6 +479,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELANTA  20TAB</t>
   </si>
   <si>
@@ -557,7 +596,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -593,7 +635,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 7:32 PM</t>
+    <t>Sunday, 28 September, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1673,14 +1715,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,14 +1731,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,14 +1748,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,14 +1764,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,11 +1781,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1755,14 +1797,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1772,11 +1814,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>31</v>
@@ -1788,14 +1830,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1812,7 +1854,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1828,7 +1870,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1838,14 +1880,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1854,14 +1896,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,14 +1913,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1887,14 +1929,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,14 +1946,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1920,14 +1962,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1937,14 +1979,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1953,14 +1995,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,11 +2012,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1986,31 +2028,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2019,14 +2061,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2078,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,14 +2094,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,11 +2111,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2085,7 +2127,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2098,15 +2140,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>31</v>
@@ -2118,14 +2160,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2135,14 +2177,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2151,14 +2193,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,14 +2210,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2184,14 +2226,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,11 +2243,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2217,14 +2259,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2234,14 +2276,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2257,7 +2299,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,11 +2309,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2283,31 +2325,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2316,14 +2358,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,14 +2375,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2349,14 +2391,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,11 +2408,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2382,7 +2424,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2395,15 +2437,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2415,14 +2457,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,14 +2474,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2448,14 +2490,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2465,14 +2507,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2481,14 +2523,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2498,14 +2540,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2514,14 +2556,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,11 +2573,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2547,7 +2589,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2560,15 +2602,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2580,14 +2622,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2597,14 +2639,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2613,14 +2655,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,11 +2672,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2646,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2663,14 +2705,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2679,31 +2721,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,7 +2754,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2725,15 +2767,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2745,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,14 +2804,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,14 +2820,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,14 +2837,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2811,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2828,14 +2870,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2844,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2861,11 +2903,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2877,31 +2919,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2917,24 +2959,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2950,24 +2992,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,14 +3018,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3000,7 +3042,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3026,11 +3068,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3042,7 +3084,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3059,14 +3101,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,14 +3117,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3092,14 +3134,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,14 +3150,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3125,49 +3167,181 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>200</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>201</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>59</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>188</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>202</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>59</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>184</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>5123.8649999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>194</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>195</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>196</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>203</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>204</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>59</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>154</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>205</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>165</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>59</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>206</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>5244.0649999999996</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>208</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>209</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>210</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3466,10 +3640,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -635,7 +635,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 7:37 PM</t>
+    <t>Sunday, 28 September, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -194,10 +194,7 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>19.2000</t>
+    <t>38.4000</t>
   </si>
   <si>
     <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
@@ -527,6 +524,12 @@
     <t>24.5000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>TRISTARSHOW SYRUP</t>
   </si>
   <si>
@@ -635,7 +638,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 7:40 PM</t>
+    <t>Sunday, 28 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,7 +1708,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1719,10 +1722,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1731,14 +1734,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1748,14 +1751,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1764,14 +1767,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1781,11 +1784,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1797,14 +1800,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1814,11 +1817,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>31</v>
@@ -1830,14 +1833,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1847,11 +1850,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1863,14 +1866,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1880,11 +1883,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1896,14 +1899,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1913,11 +1916,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1946,11 +1949,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -1962,7 +1965,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1979,11 +1982,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>31</v>
@@ -1995,7 +1998,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2016,7 +2019,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2028,7 +2031,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2045,11 +2048,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2061,7 +2064,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2078,11 +2081,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2094,7 +2097,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2111,11 +2114,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2127,7 +2130,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2144,11 +2147,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>31</v>
@@ -2160,7 +2163,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2177,11 +2180,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>31</v>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2210,11 +2213,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2226,7 +2229,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2276,11 +2279,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2292,7 +2295,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2309,11 +2312,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2375,14 +2378,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>130</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2391,7 +2394,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2424,7 +2427,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2457,14 +2460,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2478,10 +2481,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2490,7 +2493,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2573,11 +2576,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2606,11 +2609,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2622,7 +2625,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>31</v>
@@ -2655,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2672,11 +2675,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2688,7 +2691,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2705,11 +2708,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2738,11 +2741,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2754,7 +2757,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2787,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,11 +2807,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2853,7 +2856,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2870,11 +2873,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2886,31 +2889,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2919,31 +2922,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2985,14 +2988,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3002,14 +3005,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3018,28 +3021,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3051,14 +3054,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3068,14 +3071,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3084,14 +3087,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3101,14 +3104,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,7 +3120,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3134,14 +3137,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>196</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3167,14 +3170,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3233,14 +3236,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3256,7 +3259,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3266,11 +3269,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3299,49 +3302,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>5244.0649999999996</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>164</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>59</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>207</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>5286.2650000000003</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>209</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
         <v>210</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>211</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3660,10 +3696,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -152,6 +152,24 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -482,6 +500,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELANTA  20TAB</t>
   </si>
   <si>
@@ -515,6 +542,15 @@
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -638,7 +674,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 7:50 PM</t>
+    <t>Sunday, 28 September, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1576,7 +1612,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1593,7 +1629,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1609,7 +1645,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1619,14 +1655,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1635,7 +1671,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1652,11 +1688,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1668,31 +1704,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1701,14 +1737,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1718,14 +1754,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1734,31 +1770,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1767,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1784,14 +1820,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1800,14 +1836,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1817,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1833,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1850,11 +1886,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1866,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1883,14 +1919,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1899,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1916,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1932,14 +1968,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1949,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1965,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2005,7 +2041,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2015,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2031,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2048,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2064,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2081,7 +2117,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2104,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2143,7 +2179,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2154,7 +2190,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2170,7 +2206,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2187,7 +2223,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2203,13 +2239,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2220,7 +2256,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2236,7 +2272,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2286,7 +2322,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2302,7 +2338,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2335,7 +2371,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2352,7 +2388,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2368,7 +2404,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2378,14 +2414,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2394,7 +2430,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2411,11 +2447,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2427,20 +2463,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2451,7 +2487,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2460,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2477,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2500,13 +2536,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2517,7 +2553,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2533,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2543,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2559,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2576,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2592,7 +2628,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2609,11 +2645,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2625,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2642,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2665,7 +2701,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2675,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2691,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2708,11 +2744,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2731,21 +2767,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2757,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2774,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2797,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2807,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2823,28 +2859,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2856,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2873,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2889,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2906,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2922,28 +2958,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2955,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2972,11 +3008,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -2988,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,11 +3041,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -3021,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3054,28 +3090,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3087,20 +3123,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3108,10 +3144,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3120,31 +3156,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3153,31 +3189,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3186,31 +3222,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,28 +3255,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3265,18 +3301,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,31 +3321,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,66 +3354,198 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>213</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>214</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>65</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>201</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>215</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>17</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>65</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>197</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>5286.2650000000003</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>209</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>210</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>211</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>216</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>217</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>65</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>159</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>218</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>173</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>65</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>219</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>5504.1450000000004</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>221</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>222</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>223</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3701,10 +3869,30 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -596,6 +596,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -620,6 +632,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>25.3000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -674,7 +695,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 7:52 PM</t>
+    <t>Sunday, 28 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3279,7 +3300,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3295,7 +3316,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,7 +3399,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3394,7 +3415,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,7 +3441,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,49 +3524,115 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>5504.1450000000004</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>221</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>222</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>223</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>224</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>65</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>159</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>225</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>173</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>65</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>226</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>5559.4449999999997</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>228</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>229</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>230</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3889,10 +3976,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -74,249 +74,261 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>324.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>231.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>69.6000</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>BRAYTOPED SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>584.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>324.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>37.5000</t>
-  </si>
-  <si>
-    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
-  </si>
-  <si>
-    <t>231.00</t>
-  </si>
-  <si>
-    <t>231.0000</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>69.6000</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>BRAYTOPED SYRUP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>584.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>740.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -353,12 +365,6 @@
     <t>HEPATO-FORTE 30 CAPS.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>HERO BABY 1 MILK 400 GM</t>
   </si>
   <si>
@@ -416,9 +422,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>LORNOXICAM 8MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -482,6 +485,12 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -584,10 +593,22 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -656,10 +677,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -668,9 +686,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -695,7 +710,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:18 PM</t>
+    <t>Sunday, 28 September, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1615,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1614,7 +1629,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>31</v>
@@ -1626,7 +1641,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1643,11 +1658,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>31</v>
@@ -1659,7 +1674,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1676,11 +1691,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>31</v>
@@ -1692,7 +1707,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1709,11 +1724,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1758,7 +1773,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1791,7 +1806,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1804,15 +1819,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1824,7 +1839,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1963,7 +1978,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2095,7 +2110,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2128,7 +2143,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,14 +2153,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,7 +2186,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2194,7 +2209,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,11 +2219,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,11 +2252,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2253,31 +2268,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2286,28 +2301,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,14 +2384,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2450,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,11 +2483,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,31 +2565,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2583,31 +2598,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2631,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2648,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,14 +2681,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,7 +2697,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2715,7 +2730,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2732,11 +2747,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2780,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,28 +2829,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,31 +2895,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,28 +2961,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,11 +3011,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,14 +3093,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,11 +3110,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>31</v>
@@ -3111,31 +3126,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3159,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,11 +3176,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>31</v>
@@ -3177,31 +3192,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,31 +3258,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,31 +3291,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,31 +3324,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,31 +3357,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,31 +3390,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,31 +3423,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>216</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,31 +3456,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,31 +3489,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,7 +3522,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3520,18 +3535,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3547,24 +3562,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3580,59 +3595,158 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>227</v>
       </c>
-      <c t="s" r="Q75" s="12">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>17</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>64</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>208</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>5559.4449999999997</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>228</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>229</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>64</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>162</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>230</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>176</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>64</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>231</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>5851.7150000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>233</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>234</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>235</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3986,10 +4100,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -710,7 +710,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:20 PM</t>
+    <t>Sunday, 28 September, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -287,6 +287,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -587,9 +599,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -599,6 +608,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -710,7 +728,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:26 PM</t>
+    <t>Sunday, 28 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2110,7 +2128,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2153,11 +2171,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2219,7 +2237,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2242,7 +2260,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2285,11 +2303,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2301,31 +2319,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2334,28 +2352,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2516,11 +2534,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>31</v>
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2556,7 +2574,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2572,7 +2590,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2598,31 +2616,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2631,31 +2649,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2730,7 +2748,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2763,7 +2781,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2780,11 +2798,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2829,28 +2847,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -2862,31 +2880,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2902,7 +2920,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2945,11 +2963,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -2961,31 +2979,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2994,7 +3012,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3007,15 +3025,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3067,7 +3085,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3093,7 +3111,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,11 +3161,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,11 +3194,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>31</v>
@@ -3192,31 +3210,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3225,31 +3243,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3370,7 +3388,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3381,7 +3399,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3397,21 +3415,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3513,7 +3531,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3529,7 +3547,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3543,10 +3561,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>222</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,10 +3594,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>161</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>105</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3621,7 +3639,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3704,49 +3722,115 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>5851.7150000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>233</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>234</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>235</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>64</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>166</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>236</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>180</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>64</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>237</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>5882.915</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>239</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>240</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>241</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4115,10 +4199,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -320,6 +320,18 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -338,9 +350,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -635,6 +644,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -704,6 +722,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -728,7 +755,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:28 PM</t>
+    <t>Sunday, 28 September, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,7 +2221,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2204,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2253,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,7 +2297,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2293,7 +2320,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2326,7 +2353,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2359,13 +2386,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2376,7 +2403,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2392,21 +2419,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,14 +2462,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2458,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2475,7 +2502,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2491,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2508,7 +2535,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2524,7 +2551,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2541,7 +2568,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2557,7 +2584,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2590,7 +2617,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2616,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2633,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2649,31 +2676,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2689,24 +2716,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2722,7 +2749,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2755,7 +2782,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2765,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,7 +2808,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2798,11 +2825,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2814,7 +2841,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2831,7 +2858,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2854,7 +2881,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2871,7 +2898,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2887,21 +2914,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -2913,31 +2940,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2967,10 +2994,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2979,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,11 +3023,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3019,13 +3046,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3036,7 +3063,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3058,7 +3085,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3085,7 +3112,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,11 +3122,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3111,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,11 +3155,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3144,7 +3171,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3161,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3184,7 +3211,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3217,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3231,7 +3258,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>31</v>
@@ -3243,31 +3270,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3283,24 +3310,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3326,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3349,7 +3376,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3359,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3382,7 +3409,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3392,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3425,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3441,28 +3468,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3474,31 +3501,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3507,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3524,14 +3551,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3540,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3557,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3597,7 +3624,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3613,7 +3640,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3627,10 +3654,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>228</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,10 +3687,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3672,14 +3699,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3689,14 +3716,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>109</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3705,7 +3732,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3722,14 +3749,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3738,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3755,11 +3782,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3771,14 +3798,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3788,49 +3815,148 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>242</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>17</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>64</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>220</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>5882.915</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>239</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>240</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>241</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>243</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>244</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>64</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>169</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>245</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>183</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>64</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>246</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>6064.915</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>248</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>249</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>250</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4209,10 +4335,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -722,15 +722,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -755,7 +746,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:34 PM</t>
+    <t>Sunday, 28 September, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3772,7 +3763,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3864,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,82 +3872,49 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="A83" s="7">
-        <v>77</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c t="s" r="C83" s="8">
+      <c r="P83" s="13">
+        <v>5984.915</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
         <v>245</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c t="s" r="H83" s="9">
-        <v>183</v>
-      </c>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c t="s" r="L83" s="10">
-        <v>64</v>
-      </c>
-      <c r="M83" s="10"/>
-      <c t="s" r="N83" s="8">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
         <v>246</v>
       </c>
-      <c r="O83" s="8"/>
-      <c t="s" r="P83" s="11">
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
         <v>247</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>6064.915</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>248</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>249</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>250</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4345,15 +4303,10 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -590,6 +590,9 @@
     <t>24.5000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -746,7 +749,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:39 PM</t>
+    <t>Sunday, 28 September, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3268,7 +3271,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,31 +3297,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,31 +3330,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3367,7 +3370,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3446,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,31 +3528,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3641,14 +3644,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,14 +3677,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>234</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>85</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,14 +3809,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3829,7 +3832,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,49 +3875,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>5984.915</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>243</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>183</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>64</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>244</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>245</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>6007.915</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>246</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
         <v>247</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>248</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4303,10 +4339,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -341,6 +353,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -548,6 +569,15 @@
     <t>86.7500</t>
   </si>
   <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -644,7 +674,10 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>192.0000</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -695,9 +728,6 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>230.00</t>
-  </si>
-  <si>
     <t>25.3000</t>
   </si>
   <si>
@@ -707,16 +737,16 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>32.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -734,6 +764,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -749,7 +785,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 8:49 PM</t>
+    <t>Sunday, 28 September, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1789,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,14 +1799,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1779,14 +1815,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1803,7 +1839,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1848,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1836,7 +1872,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,7 +1881,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1858,15 +1894,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1878,31 +1914,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,14 +1997,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,7 +2037,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2017,7 +2053,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,11 +2063,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>31</v>
@@ -2043,14 +2079,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2067,7 +2103,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2133,7 +2169,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2182,7 +2218,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,11 +2228,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2208,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2232,7 +2268,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2284,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2294,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2310,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2327,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2307,14 +2343,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2340,14 +2376,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,11 +2393,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2373,14 +2409,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,11 +2426,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2406,31 +2442,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2475,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2492,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,31 +2508,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2541,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,11 +2558,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2538,7 +2574,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2555,14 +2591,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2607,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,11 +2624,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2604,14 +2640,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2657,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2661,7 +2697,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2687,11 +2723,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2703,31 +2739,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2772,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,31 +2805,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2838,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2855,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2871,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2888,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,7 +2904,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2885,11 +2921,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2901,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2954,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,31 +2970,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3020,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,28 +3036,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3033,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3086,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,31 +3102,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,14 +3135,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3152,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,20 +3168,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3172,21 +3208,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3198,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3251,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3300,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3317,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3297,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3330,31 +3366,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,14 +3399,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3416,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3432,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3449,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,31 +3465,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3498,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3515,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3502,7 +3538,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3548,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3564,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,11 +3581,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3561,31 +3597,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,31 +3630,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3634,24 +3670,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,20 +3696,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3684,7 +3720,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3700,24 +3736,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,31 +3762,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>235</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,31 +3795,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,31 +3828,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,7 +3861,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3838,18 +3874,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,31 +3894,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,66 +3927,198 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>250</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>68</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>232</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>6007.915</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>246</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>247</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>248</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>251</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>17</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>68</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>236</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>253</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>254</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>68</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>176</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>255</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>193</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>68</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>256</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>6454.2150000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>258</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>259</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>260</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4344,10 +4512,30 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:18 PM</t>
+    <t>Sunday, 28 September, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -302,13 +302,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:3</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -494,9 +494,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
   </si>
   <si>
@@ -653,10 +650,13 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>XORAXON 1GM I.M. VIAL</t>
@@ -785,7 +785,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:21 PM</t>
+    <t>Sunday, 28 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2202,7 +2202,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3020,11 +3020,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3069,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3152,11 +3152,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3251,11 +3251,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3267,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>31</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>31</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3531,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>71</v>
@@ -3564,14 +3564,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3588,7 +3588,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3852,7 +3852,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,10 +3915,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4043,11 +4043,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4066,7 +4066,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="88" ht="24.75" customHeight="1">
       <c r="P88" s="13">
-        <v>6454.2150000000001</v>
+        <v>6485.415</v>
       </c>
       <c r="Q88" s="13"/>
     </row>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:23 PM</t>
+    <t>Sunday, 28 September, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -290,13 +302,25 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -305,9 +329,6 @@
     <t>5:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -335,9 +356,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -353,6 +371,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -452,6 +479,18 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -533,15 +572,6 @@
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -674,9 +704,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -743,10 +770,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -755,12 +779,18 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سلاكه اسنان خشب</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>24:0</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -785,7 +815,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:29 PM</t>
+    <t>Sunday, 28 September, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1690,7 +1720,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1700,14 +1730,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1716,14 +1746,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1733,11 +1763,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>31</v>
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1766,11 +1796,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>31</v>
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1822,7 +1852,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1832,14 +1862,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1872,7 +1902,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1881,14 +1911,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1905,7 +1935,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1914,7 +1944,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1927,15 +1957,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1947,31 +1977,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2013,14 +2043,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2030,14 +2060,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2070,7 +2100,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2086,7 +2116,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2096,11 +2126,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -2112,14 +2142,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2136,7 +2166,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2199,10 +2229,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>71</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2251,7 +2281,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2261,14 +2291,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2301,7 +2331,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2317,7 +2347,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2350,7 +2380,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2367,7 +2397,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2383,7 +2413,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2393,14 +2423,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2409,14 +2439,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2426,14 +2456,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2459,14 +2489,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2475,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2492,7 +2522,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2515,13 +2545,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2532,7 +2562,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2548,7 +2578,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2591,11 +2621,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2607,28 +2637,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>31</v>
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2697,7 +2727,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2713,7 +2743,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2746,7 +2776,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2772,14 +2802,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,7 +2819,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2812,13 +2842,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2829,7 +2859,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2851,18 +2881,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2871,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2904,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2925,10 +2955,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2950,15 +2980,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2970,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +3017,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3033,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,11 +3050,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>31</v>
@@ -3036,31 +3066,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3102,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3135,14 +3165,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3152,11 +3182,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>31</v>
@@ -3168,31 +3198,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3201,28 +3231,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,28 +3330,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3333,31 +3363,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,14 +3479,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,31 +3495,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3515,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3578,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3585,10 +3615,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,31 +3627,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,14 +3677,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,31 +3726,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3729,31 +3759,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,31 +3792,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,31 +3825,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,31 +3858,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,31 +3891,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,31 +3924,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,31 +3957,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3960,7 +3990,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3973,18 +4003,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4006,18 +4036,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,31 +4056,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,66 +4089,264 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>6485.415</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>257</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>258</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>72</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>245</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>259</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>99</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>72</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>237</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>260</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>17</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>72</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>241</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>17</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>72</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>245</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>264</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>72</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>46</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>202</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>72</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>266</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>6695.915</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>268</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>269</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>270</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4532,10 +4760,40 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:31 PM</t>
+    <t>Sunday, 28 September, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 9:46 PM</t>
+    <t>Sunday, 28 September, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -380,6 +380,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -491,6 +503,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -569,9 +590,36 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -632,12 +680,6 @@
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
     <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -665,15 +707,21 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>URSOPLUS 20 CAP.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>174.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -746,16 +794,22 @@
     <t>32:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
     <t>25.3000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -2479,7 +2533,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2489,11 +2543,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2505,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2522,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2538,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2555,11 +2609,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2571,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2588,11 +2642,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2604,14 +2658,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2621,11 +2675,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2637,31 +2691,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2670,28 +2724,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2703,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2736,14 +2790,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2753,14 +2807,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2769,14 +2823,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,14 +2840,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2802,14 +2856,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2819,14 +2873,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2835,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>31</v>
@@ -2868,20 +2922,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2892,7 +2946,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2914,7 +2968,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2925,7 +2979,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2951,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,31 +3021,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3000,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,14 +3071,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,31 +3087,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3066,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3099,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3132,7 +3186,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3149,11 +3203,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3165,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3236,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,31 +3252,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3248,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3264,28 +3318,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>31</v>
@@ -3297,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3330,28 +3384,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3363,28 +3417,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3396,28 +3450,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3429,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3469,7 +3523,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3495,31 +3549,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3528,31 +3582,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3632,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3594,14 +3648,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,14 +3665,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3627,28 +3681,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3660,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,11 +3731,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3693,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3780,10 +3834,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,31 +3846,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3832,7 +3886,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3849,7 +3903,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3865,24 +3919,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,31 +3945,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,31 +3978,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,31 +4011,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,31 +4044,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,31 +4077,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>253</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,11 +4160,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4122,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,11 +4193,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>99</v>
@@ -4155,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4242,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4221,7 +4275,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4238,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4254,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,49 +4358,280 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q93" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>274</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>77</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>72</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>257</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>6695.915</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>268</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>269</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>270</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>275</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>276</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>72</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>194</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>277</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>99</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>72</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>253</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>17</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>72</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>257</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>279</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>17</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>72</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>194</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>281</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>282</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>72</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>46</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>283</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>218</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>72</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>284</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>7072.4350000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>286</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>287</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>288</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4790,10 +5075,45 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 10:35 PM</t>
+    <t>Sunday, 28 September, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -215,6 +224,15 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
   </si>
   <si>
@@ -281,12 +299,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -332,6 +344,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DICLAC 75 MG/3ML 6AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -770,9 +791,6 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -869,7 +887,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 10:44 PM</t>
+    <t>Sunday, 28 September, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1741,7 +1759,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1751,11 +1769,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>31</v>
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1784,14 +1802,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1833,14 +1851,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1850,7 +1868,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1873,7 +1891,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1906,7 +1924,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1916,11 +1934,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1956,7 +1974,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1972,7 +1990,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2015,14 +2033,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2038,24 +2056,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2097,31 +2115,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2180,14 +2198,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2229,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2349,10 +2367,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,11 +2396,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>31</v>
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,11 +2495,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2493,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,11 +2528,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2526,14 +2544,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>31</v>
@@ -2592,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2724,31 +2742,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2797,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2830,13 +2848,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2863,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>31</v>
@@ -2955,31 +2973,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,31 +3072,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,31 +3105,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3186,7 +3204,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3199,11 +3217,11 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3226,7 +3244,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,31 +3336,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,31 +3435,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3463,7 +3481,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3474,7 +3492,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3490,7 +3508,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,28 +3567,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3582,31 +3600,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,28 +3666,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3681,28 +3699,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>31</v>
@@ -3846,31 +3864,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>31</v>
@@ -3952,24 +3970,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4002,7 +4020,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4018,7 +4036,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,31 +4128,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4143,31 +4161,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,31 +4194,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,31 +4227,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,28 +4260,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4275,31 +4293,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>218</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,31 +4359,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,31 +4392,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4414,24 +4432,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>99</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,31 +4458,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,28 +4491,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4506,31 +4524,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,28 +4557,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4572,66 +4590,165 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>7072.4350000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>285</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>17</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>78</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>201</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>286</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>287</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>288</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>78</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>49</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>289</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>225</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>78</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>290</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>7117.8649999999998</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>292</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>293</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>294</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5110,10 +5227,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -248,6 +260,15 @@
     <t>0</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -311,6 +332,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -323,6 +353,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -689,12 +728,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -881,13 +914,10 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:34 PM</t>
+    <t>Sunday, 28 September, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1759,7 +1789,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1769,11 +1799,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>31</v>
@@ -1785,14 +1815,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1842,7 +1872,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1858,7 +1888,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1868,14 +1898,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1884,14 +1914,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1901,11 +1931,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>31</v>
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,11 +1964,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1950,14 +1980,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1990,7 +2020,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,14 +2030,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2040,7 +2070,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2049,14 +2079,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2073,7 +2103,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2099,14 +2129,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2115,7 +2145,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2128,15 +2158,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2148,31 +2178,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2205,7 +2235,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2466,10 +2496,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2485,7 +2515,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2551,7 +2581,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2584,7 +2614,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2617,7 +2647,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,11 +2657,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>31</v>
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2683,7 +2713,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2700,7 +2730,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2716,7 +2746,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,7 +2838,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2841,31 +2871,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2954,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,31 +3003,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,11 +3053,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,14 +3086,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,20 +3102,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3096,7 +3126,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3112,7 +3142,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3129,7 +3159,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3145,7 +3175,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3185,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,7 +3201,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3188,7 +3218,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3211,21 +3241,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -3270,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3324,10 +3354,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,7 +3366,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3349,15 +3379,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3369,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,11 +3449,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>31</v>
@@ -3435,31 +3465,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,11 +3548,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3534,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3581,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,31 +3597,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,28 +3696,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3699,28 +3729,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3779,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3789,7 +3819,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3805,21 +3835,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3831,31 +3861,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3930,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,31 +3993,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,31 +4125,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4152,7 +4182,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4168,7 +4198,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4257,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,31 +4290,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,31 +4323,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,31 +4356,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4372,15 +4402,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4392,20 +4422,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4413,10 +4443,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>225</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,31 +4455,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>277</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4465,24 +4495,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4498,21 +4528,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4524,31 +4554,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,31 +4587,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,7 +4620,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4603,18 +4633,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,28 +4653,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4656,31 +4686,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,66 +4719,198 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>7117.8649999999998</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>292</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>293</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>294</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>295</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>17</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>82</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>274</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>296</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>17</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>82</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>214</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>298</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>299</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>82</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>53</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>300</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>238</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>82</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>42</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>7314.0349999999999</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>302</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>303</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>304</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5242,10 +5404,30 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -443,339 +443,345 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>59.0400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
+    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>123.7500</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MELATEX LIGHTENING CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>243.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELANTA  20TAB</t>
+  </si>
+  <si>
+    <t>86.75</t>
+  </si>
+  <si>
+    <t>86.7500</t>
+  </si>
+  <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRISTARSHOW SYRUP</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>URSOPLUS 20 CAP.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>174.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HEPATO-FORTE 30 CAPS.</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>259.00</t>
-  </si>
-  <si>
-    <t>259.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>201.0000</t>
-  </si>
-  <si>
-    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>375.00</t>
-  </si>
-  <si>
-    <t>123.7500</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60MG 3 TAB</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>LOTERANOL 0.5% EYE DROPS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MELATEX LIGHTENING CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>243.00</t>
-  </si>
-  <si>
-    <t>243.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELANTA  20TAB</t>
-  </si>
-  <si>
-    <t>86.75</t>
-  </si>
-  <si>
-    <t>86.7500</t>
-  </si>
-  <si>
-    <t>RYLTRIS</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>SOOTONIC HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>24.5000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRISTARSHOW SYRUP</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>280.0000</t>
-  </si>
-  <si>
-    <t>URSOPLUS 20 CAP.</t>
-  </si>
-  <si>
-    <t>174.00</t>
-  </si>
-  <si>
-    <t>174.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -917,7 +923,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:42 PM</t>
+    <t>Sunday, 28 September, 2025 11:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2829,7 +2835,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2838,7 +2844,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2855,11 +2861,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
@@ -2871,7 +2877,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2892,7 +2898,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2904,7 +2910,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2921,11 +2927,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2954,11 +2960,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2970,7 +2976,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3003,7 +3009,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3069,7 +3075,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3086,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3102,7 +3108,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -3135,7 +3141,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3152,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>35</v>
@@ -3168,7 +3174,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3185,11 +3191,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>31</v>
@@ -3201,7 +3207,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3218,11 +3224,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,11 +3257,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3267,7 +3273,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3284,11 +3290,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3333,7 +3339,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>31</v>
@@ -3366,7 +3372,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3383,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3420,7 +3426,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3432,7 +3438,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3449,7 +3455,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3465,7 +3471,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3486,7 +3492,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3498,7 +3504,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3515,11 +3521,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3531,7 +3537,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3564,7 +3570,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3581,11 +3587,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>31</v>
@@ -3597,7 +3603,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3618,7 +3624,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>31</v>
@@ -3630,7 +3636,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3647,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>113</v>
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3696,7 +3702,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3713,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3729,7 +3735,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3762,7 +3768,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3779,7 +3785,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3795,7 +3801,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3812,11 +3818,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3828,7 +3834,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3845,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3861,7 +3867,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3878,11 +3884,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3894,7 +3900,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3911,11 +3917,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3927,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3960,7 +3966,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3993,7 +3999,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4010,11 +4016,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -4026,7 +4032,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4043,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>31</v>
@@ -4059,7 +4065,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4092,7 +4098,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4109,7 +4115,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4125,7 +4131,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4142,11 +4148,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4158,7 +4164,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4175,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4191,7 +4197,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4212,7 +4218,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>31</v>
@@ -4224,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>88</v>
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>88</v>
@@ -4290,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>35</v>
@@ -4323,7 +4329,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4344,7 +4350,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>113</v>
@@ -4356,7 +4362,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4373,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>31</v>
@@ -4389,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4410,7 +4416,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4422,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,11 +4445,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4455,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,11 +4478,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>113</v>
@@ -4488,7 +4494,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4505,11 +4511,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>88</v>
@@ -4521,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,11 +4544,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4554,7 +4560,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4571,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,7 +4593,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4604,14 +4610,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,7 +4626,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4637,7 +4643,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4653,7 +4659,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4670,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4686,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>113</v>
@@ -4719,7 +4725,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4740,7 +4746,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4752,7 +4758,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4769,11 +4775,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4785,7 +4791,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4802,11 +4808,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4818,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4851,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4872,7 +4878,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4880,13 +4886,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>7314.0349999999999</v>
+        <v>7361.5550000000003</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4894,13 +4900,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:10</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>144.00</t>
@@ -779,9 +779,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -923,7 +920,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 28 September, 2025 11:53 PM</t>
+    <t>Sunday, 28 September, 2025 11:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4237,7 +4234,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4251,7 +4248,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>88</v>
@@ -4263,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,11 +4277,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>88</v>
@@ -4296,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,11 +4310,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>35</v>
@@ -4329,7 +4326,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4350,7 +4347,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>113</v>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4379,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>31</v>
@@ -4395,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4416,7 +4413,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4428,14 +4425,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4442,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4461,14 +4458,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4494,7 +4491,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4515,7 +4512,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>88</v>
@@ -4527,14 +4524,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4541,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4560,7 +4557,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4577,7 +4574,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4593,7 +4590,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4610,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,7 +4623,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4643,7 +4640,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4659,7 +4656,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4676,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4692,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4746,7 +4743,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4775,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4791,7 +4788,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4812,7 +4809,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4824,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4878,7 +4875,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4892,7 +4889,7 @@
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4900,13 +4897,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-09-28_00-00.xlsx
+++ b/DaySale_2025-09-28_00-00.xlsx
@@ -443,340 +443,343 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>59.0400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HEPATO-FORTE 30 CAPS.</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>259.00</t>
+  </si>
+  <si>
+    <t>259.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
+    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>123.7500</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MELATEX LIGHTENING CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>243.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELANTA  20TAB</t>
+  </si>
+  <si>
+    <t>86.75</t>
+  </si>
+  <si>
+    <t>86.7500</t>
+  </si>
+  <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRISTARSHOW SYRUP</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>URSOPLUS 20 CAP.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>174.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>3:2</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>59.0400</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HEPATO-FORTE 30 CAPS.</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>259.00</t>
-  </si>
-  <si>
-    <t>259.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>201.0000</t>
-  </si>
-  <si>
-    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>375.00</t>
-  </si>
-  <si>
-    <t>123.7500</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60MG 3 TAB</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LORNOXICAM 8MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>LOTERANOL 0.5% EYE DROPS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MELATEX LIGHTENING CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>243.00</t>
-  </si>
-  <si>
-    <t>243.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>OTOCORT EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELANTA  20TAB</t>
-  </si>
-  <si>
-    <t>86.75</t>
-  </si>
-  <si>
-    <t>86.7500</t>
-  </si>
-  <si>
-    <t>RYLTRIS</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>SOOTONIC HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>24.5000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRISTARSHOW SYRUP</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>280.0000</t>
-  </si>
-  <si>
-    <t>URSOPLUS 20 CAP.</t>
-  </si>
-  <si>
-    <t>174.00</t>
-  </si>
-  <si>
-    <t>174.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>33.6600</t>
@@ -4234,7 +4237,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>88</v>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>88</v>
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>35</v>
@@ -4326,7 +4329,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4347,7 +4350,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>113</v>
@@ -4359,7 +4362,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4376,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>31</v>
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4413,7 +4416,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4491,7 +4494,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4512,7 +4515,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>88</v>
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,11 +4544,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4557,7 +4560,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4574,7 +4577,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4590,7 +4593,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4607,14 +4610,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,7 +4626,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4640,7 +4643,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4656,7 +4659,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4743,7 +4746,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4755,7 +4758,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4772,11 +4775,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4788,7 +4791,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4821,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4854,7 +4857,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4875,7 +4878,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4897,13 +4900,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
